--- a/medicine/Enfance/Gaëtan_Evrard/Gaëtan_Evrard.xlsx
+++ b/medicine/Enfance/Gaëtan_Evrard/Gaëtan_Evrard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Evrard</t>
+          <t>Gaëtan_Evrard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëtan Evrard, né le 4 juillet 1959 à Namur, un auteur de bande dessinée et illustrateur belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Evrard</t>
+          <t>Gaëtan_Evrard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaëtan Evrard naît le 4 juillet 1959[1] à Namur[2]. Après sa formation d'illustrateur[3], il commence sa carrière professionnelle dans la presse confessionnelle pour la jeunesse en 1984. Ainsi, on trouve sa signature dans les différentes publications des Éditions Averbode dont Tremplin, où il illustre des thèmes variés et réalise des pages d’éveil religieux en collaboration avec Anne-Dominique Derroitte, Geneviève Rousseau et Hedwig Berghmans. À la fin des années 1980, on le retrouve dans la revue Grain de Soleil de Bayard Presse et en 1990, il est dans Je bouquine[4]. À partir de 2002, dans Pomme d’Api, Pomme d’Api Soleil et Prions en Église mais également dans les revues Mille et une histoires, Abricot, Pirouette, et Tournesol[1] de l'éditeur jeunesse Fleurus presse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaëtan Evrard naît le 4 juillet 1959 à Namur. Après sa formation d'illustrateur, il commence sa carrière professionnelle dans la presse confessionnelle pour la jeunesse en 1984. Ainsi, on trouve sa signature dans les différentes publications des Éditions Averbode dont Tremplin, où il illustre des thèmes variés et réalise des pages d’éveil religieux en collaboration avec Anne-Dominique Derroitte, Geneviève Rousseau et Hedwig Berghmans. À la fin des années 1980, on le retrouve dans la revue Grain de Soleil de Bayard Presse et en 1990, il est dans Je bouquine. À partir de 2002, dans Pomme d’Api, Pomme d’Api Soleil et Prions en Église mais également dans les revues Mille et une histoires, Abricot, Pirouette, et Tournesol de l'éditeur jeunesse Fleurus presse.
 L'auteur entame une longue collaboration avec les Éditions du Triomphe dans laquelle il publie régulièrement dans la collection « Le vent de l'histoire » de nombreuses biographies en bande dessinée sur des personnalités de la chrétienté, tantôt comme scénariste, tantôt comme dessinateur quand ce n'est pas comme coloriste.
-L'auteur est multiprimé du prix européen Gabriel : Récits bibliques en images en 2002, Une vie donnée à Dieu et aux hommes - Les Moines de Tibhirine-Fès-Midelt en 2012 et Monseigneur Vladimir Ghika, Vagabond Apostolique en 2021[5].
+L'auteur est multiprimé du prix européen Gabriel : Récits bibliques en images en 2002, Une vie donnée à Dieu et aux hommes - Les Moines de Tibhirine-Fès-Midelt en 2012 et Monseigneur Vladimir Ghika, Vagabond Apostolique en 2021.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Evrard</t>
+          <t>Gaëtan_Evrard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaëtan Evrard est marié à Bénédicte[6] Quinet — également illustratrice[7] pour enfants et coloriste — et père de quatre enfants[1], il vit à Sart-Custinne[7] en Belgique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaëtan Evrard est marié à Bénédicte Quinet — également illustratrice pour enfants et coloriste — et père de quatre enfants, il vit à Sart-Custinne en Belgique.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Evrard</t>
+          <t>Gaëtan_Evrard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Par ordre chronologique
-Illustration
-Comment j'ai guéri Don Quichotte par le docteur Sancho Panza, Duculot, coll. « Les Albums Duculot », 1994, 34 p.  (ISBN 9782801106099)
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ordre chronologique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaëtan_Evrard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ga%C3%ABtan_Evrard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Comment j'ai guéri Don Quichotte par le docteur Sancho Panza, Duculot, coll. « Les Albums Duculot », 1994, 34 p.  (ISBN 9782801106099)
 Pierrot et Petit Pierrot, L'École des loisirs, 18 juillet 1996, 24 p.  (ISBN 9782211039277)
-À la poursuite de l'œuf du dragon de Dominique Pérez, Bayard Presse, coll. « J'aime lire » (1997)[12].
+À la poursuite de l'œuf du dragon de Dominique Pérez, Bayard Presse, coll. « J'aime lire » (1997).
 Pain pour tous - Cahier de l'enfant d'Anne-Dominique Derroitte, Gaëtan Evrard (Dessins), Lumen Vitae, 29 avril 2011, 23 p.  (ISBN 9782873244026).</t>
         </is>
       </c>
